--- a/branches/Richard/ValueSet-vs-patient-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:34:35+00:00</t>
+    <t>2022-11-28T14:50:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
